--- a/European_Coaching/day_4/excel/task-1.xlsx
+++ b/European_Coaching/day_4/excel/task-1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,16 +11,67 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GOAL SEEK</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>SL NO</t>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+  </si>
+  <si>
+    <t>MARKS</t>
+  </si>
+  <si>
+    <t>DEEP</t>
+  </si>
+  <si>
+    <t>DHURVI</t>
+  </si>
+  <si>
+    <t>ITTY</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>APTITUDE</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,14 +97,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +405,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>65.999999999999986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(F5:F7)</f>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
